--- a/monsterNotes.xlsx
+++ b/monsterNotes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>Num</t>
   </si>
@@ -132,6 +132,42 @@
   </si>
   <si>
     <t>Ninja Adventure Pack - Mouse.png</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Ninja Adventure Pack - Spirit.png</t>
+  </si>
+  <si>
+    <t>Salmander</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Ninja Adventure Pack - Reptile.png</t>
+  </si>
+  <si>
+    <t>Lisard</t>
+  </si>
+  <si>
+    <t>Ninja Adventure Pack - Lizard.png</t>
+  </si>
+  <si>
+    <t>Quirel</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Ninja Adventure Pack - Tanuki2.png</t>
   </si>
 </sst>
 </file>
@@ -139,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +186,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -181,16 +223,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -210,6 +258,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L14" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:L14"/>
+  <tableColumns count="12">
+    <tableColumn name="Num" id="1" totalsRowLabel="Total"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="HP" id="3"/>
+    <tableColumn name="Type" id="4"/>
+    <tableColumn name="Attack1" id="5"/>
+    <tableColumn name="Attack2" id="6"/>
+    <tableColumn name="Frames" id="7"/>
+    <tableColumn name="Width" id="8"/>
+    <tableColumn name="Height" id="9"/>
+    <tableColumn name="Done" id="10"/>
+    <tableColumn name="Notes" id="11"/>
+    <tableColumn name="TODO" id="12" totalsRowFunction="custom">
+      <totalsRowFormula>Sum</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,24 +571,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="5.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="6.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="39.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="27.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="5.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="6.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="39.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="27.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -558,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -594,7 +665,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -630,7 +701,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>7</v>
       </c>
@@ -664,7 +735,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -700,7 +771,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -736,7 +807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>13</v>
       </c>
@@ -770,7 +841,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>12</v>
       </c>
@@ -804,14 +875,14 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="4">
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -821,13 +892,13 @@
         <v>14</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="3">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
         <v>46</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>64</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -838,8 +909,161 @@
       </c>
       <c r="L9" s="2"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4">
+        <v>80</v>
+      </c>
+      <c r="I11" s="4">
+        <v>80</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4">
+        <v>80</v>
+      </c>
+      <c r="I12" s="4">
+        <v>80</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="4">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>80</v>
+      </c>
+      <c r="I13" s="4">
+        <v>80</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4">
+        <v>4</v>
+      </c>
+      <c r="H14" s="4">
+        <v>80</v>
+      </c>
+      <c r="I14" s="4">
+        <v>80</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
